--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_2.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382176</v>
+        <v>-173776.4612130868</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346244</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="F6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="G6" t="n">
-        <v>5375.370276572316</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.370276572316</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="K6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="L6" t="n">
-        <v>5375.37027657232</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="M6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="N6" t="n">
-        <v>5375.37027657232</v>
+        <v>-9775.303693462447</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.370276572318</v>
+        <v>-9775.303693462443</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_2.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173776.4612130868</v>
+        <v>-59691.60273074824</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043116</v>
       </c>
       <c r="C6" t="n">
-        <v>-43402.90369346244</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="D6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="E6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568842</v>
       </c>
       <c r="F6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568844</v>
       </c>
       <c r="G6" t="n">
-        <v>-9775.303693462447</v>
+        <v>3860.30287956884</v>
       </c>
       <c r="H6" t="n">
-        <v>-9775.303693462447</v>
+        <v>3860.302879568842</v>
       </c>
       <c r="I6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568844</v>
       </c>
       <c r="J6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568844</v>
       </c>
       <c r="K6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568846</v>
       </c>
       <c r="L6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568842</v>
       </c>
       <c r="M6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568842</v>
       </c>
       <c r="N6" t="n">
-        <v>-9775.303693462447</v>
+        <v>3860.302879568842</v>
       </c>
       <c r="O6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568844</v>
       </c>
       <c r="P6" t="n">
-        <v>-9775.303693462443</v>
+        <v>3860.302879568846</v>
       </c>
     </row>
   </sheetData>
